--- a/REGULAR/TREASURY/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/TREASURY/GUAÑEZO, MA.GINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC16D8-3AE1-4E71-B3BE-BB22A25891D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1936887-0BC8-4B6A-A79D-25688D9E1317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>3/13,14,15/2023</t>
+  </si>
+  <si>
+    <t>3/16,17/2023</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1034,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1354,12 +1363,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:EJ131"/>
+  <dimension ref="A2:EJ132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A81" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,7 +1440,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1525,7 +1536,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>122.139</v>
+        <v>120.389</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1535,7 +1546,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.375</v>
+        <v>105.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3257,12 +3268,14 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>3</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -3272,29 +3285,39 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H91" s="39">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3312,7 +3335,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3330,7 +3353,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3348,7 +3371,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3366,7 +3389,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3384,7 +3407,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3402,7 +3425,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3420,7 +3443,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3438,7 +3461,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3456,7 +3479,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3474,7 +3497,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3492,7 +3515,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3510,7 +3533,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3528,7 +3551,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3546,7 +3569,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3564,7 +3587,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3582,7 +3605,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3600,7 +3623,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3618,7 +3641,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3636,7 +3659,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3654,7 +3677,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3672,7 +3695,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3690,7 +3713,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3708,7 +3731,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3726,7 +3749,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3744,7 +3767,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3762,7 +3785,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3780,7 +3803,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3798,7 +3821,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3816,7 +3839,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3834,7 +3857,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3852,7 +3875,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3870,7 +3893,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3888,7 +3911,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3906,7 +3929,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3924,7 +3947,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3941,7 +3964,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46113</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3989,20 +4014,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
